--- a/tables/remainder/munip.xlsx
+++ b/tables/remainder/munip.xlsx
@@ -25,28 +25,28 @@
     <t>Čukarica</t>
   </si>
   <si>
+    <t>Zvezdara</t>
+  </si>
+  <si>
+    <t>Vračar</t>
+  </si>
+  <si>
+    <t>Novi Beograd</t>
+  </si>
+  <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
+    <t>Palilula</t>
+  </si>
+  <si>
     <t>Rakovica</t>
   </si>
   <si>
-    <t>Vračar</t>
-  </si>
-  <si>
     <t>Zemun</t>
   </si>
   <si>
-    <t>Palilula</t>
-  </si>
-  <si>
-    <t>Zvezdara</t>
-  </si>
-  <si>
     <t>Savski Venac</t>
-  </si>
-  <si>
-    <t>Novi Beograd</t>
-  </si>
-  <si>
-    <t>Voždovac</t>
   </si>
   <si>
     <t>Stari grad</t>
@@ -440,10 +440,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -462,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>12.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C7">
-        <v>8.4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C9">
-        <v>17.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/tables/remainder/munip.xlsx
+++ b/tables/remainder/munip.xlsx
@@ -22,31 +22,31 @@
     <t>%</t>
   </si>
   <si>
+    <t>Savski Venac</t>
+  </si>
+  <si>
+    <t>Vračar</t>
+  </si>
+  <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
+    <t>Rakovica</t>
+  </si>
+  <si>
+    <t>Zvezdara</t>
+  </si>
+  <si>
+    <t>Novi Beograd</t>
+  </si>
+  <si>
+    <t>Zemun</t>
+  </si>
+  <si>
+    <t>Palilula</t>
+  </si>
+  <si>
     <t>Čukarica</t>
-  </si>
-  <si>
-    <t>Zvezdara</t>
-  </si>
-  <si>
-    <t>Vračar</t>
-  </si>
-  <si>
-    <t>Novi Beograd</t>
-  </si>
-  <si>
-    <t>Voždovac</t>
-  </si>
-  <si>
-    <t>Palilula</t>
-  </si>
-  <si>
-    <t>Rakovica</t>
-  </si>
-  <si>
-    <t>Zemun</t>
-  </si>
-  <si>
-    <t>Savski Venac</t>
   </si>
   <si>
     <t>Stari grad</t>
@@ -429,10 +429,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,10 +440,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>14.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>17.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C7">
-        <v>12.9</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C9">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>14.4</v>
@@ -539,10 +539,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/tables/remainder/munip.xlsx
+++ b/tables/remainder/munip.xlsx
@@ -22,34 +22,34 @@
     <t>%</t>
   </si>
   <si>
+    <t>Zvezdara</t>
+  </si>
+  <si>
+    <t>Vračar</t>
+  </si>
+  <si>
+    <t>Novi Beograd</t>
+  </si>
+  <si>
+    <t>Stari grad</t>
+  </si>
+  <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
+    <t>Palilula</t>
+  </si>
+  <si>
     <t>Savski Venac</t>
   </si>
   <si>
-    <t>Vračar</t>
-  </si>
-  <si>
-    <t>Voždovac</t>
+    <t>Čukarica</t>
+  </si>
+  <si>
+    <t>Zemun</t>
   </si>
   <si>
     <t>Rakovica</t>
-  </si>
-  <si>
-    <t>Zvezdara</t>
-  </si>
-  <si>
-    <t>Novi Beograd</t>
-  </si>
-  <si>
-    <t>Zemun</t>
-  </si>
-  <si>
-    <t>Palilula</t>
-  </si>
-  <si>
-    <t>Čukarica</t>
-  </si>
-  <si>
-    <t>Stari grad</t>
   </si>
   <si>
     <t>Others</t>
@@ -429,10 +429,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C7">
-        <v>17.3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>11.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>12.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>14.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
